--- a/Assignment_6/DiffAssignmentL1.xlsx
+++ b/Assignment_6/DiffAssignmentL1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbold\Desktop\GNSS\Assignment_6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104AEAF-CA7F-4CE5-AFFE-0320176EE6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="285" windowWidth="14970" windowHeight="9960"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -159,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000E+00"/>
@@ -200,7 +206,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +222,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,7 +287,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,12 +296,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -303,16 +313,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -327,13 +343,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -342,11 +358,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -354,6 +373,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -366,15 +396,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>792480</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1009650</xdr:colOff>
+          <xdr:colOff>1013460</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -383,11 +413,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -395,6 +428,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -407,7 +451,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>752475</xdr:colOff>
+          <xdr:colOff>754380</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
@@ -415,7 +459,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>876300</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -424,11 +468,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -436,6 +483,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -448,7 +506,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
@@ -465,11 +523,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -477,6 +538,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -491,13 +563,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>906780</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -506,11 +578,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -518,6 +593,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -875,51 +961,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -930,7 +1016,7 @@
         <v>1655955.588</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -941,11 +1027,11 @@
         <v>823151.02099999995</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -956,7 +1042,7 @@
         <v>1790394.946</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -967,11 +1053,11 @@
         <v>896009.12100000004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -982,7 +1068,7 @@
         <v>-2239193.3280000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -993,11 +1079,11 @@
         <v>-984361.76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1094,7 @@
         <v>-104773.368</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1019,11 +1105,11 @@
         <v>12789.109</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +1120,7 @@
         <v>-132527.399</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1045,11 +1131,11 @@
         <v>-3418.4389999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1146,7 @@
         <v>-1897452.8540000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1071,83 +1157,83 @@
         <v>-704176.24399999995</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="11">
+      <c r="C24" s="20">
         <v>-4.6269462519999999E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="11">
+      <c r="C25" s="20">
         <v>-2.9888030410000002E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
         <v>4</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="18">
         <v>448.59629794210201</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
         <v>5</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="18">
         <v>479.29772413521999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
         <v>6</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="18">
         <v>-446.26960337162001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
         <v>20</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="18">
         <v>54.324880238622399</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
         <v>24</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="18">
         <v>50.541296388953903</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
         <v>25</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="18">
         <v>-372.57383386418201</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>12</v>
       </c>
@@ -1162,41 +1248,41 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37">
+      <c r="B37" s="14"/>
+      <c r="C37" s="18">
         <v>3099255.4493</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="18">
         <v>1014087.319</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="18">
         <v>5463148.7221999997</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38">
+      <c r="B38" s="14"/>
+      <c r="C38" s="18">
         <v>3099279.7204999998</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="18">
         <v>1013349.0864</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="18">
         <v>5463275.8063000003</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="16"/>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>17</v>
       </c>
@@ -1211,96 +1297,102 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>4</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18">
+        <v>-9640637.2448591292</v>
+      </c>
+      <c r="D43" s="18">
+        <v>11963653.420836199</v>
+      </c>
+      <c r="E43" s="18">
+        <v>21764864.538586002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>5</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18">
+        <v>11580980.2843192</v>
+      </c>
+      <c r="D44" s="18">
+        <v>18202692.292516202</v>
+      </c>
+      <c r="E44" s="18">
+        <v>15492885.826446399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>6</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18">
+        <v>22299882.173245899</v>
+      </c>
+      <c r="D45" s="18">
+        <v>-922322.52783503395</v>
+      </c>
+      <c r="E45" s="18">
+        <v>14645540.936491599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
         <v>20</v>
       </c>
-      <c r="C43">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18">
         <v>15014113.589193899</v>
       </c>
-      <c r="D43">
+      <c r="D46" s="18">
         <v>5240279.54006969</v>
       </c>
-      <c r="E43">
+      <c r="E46" s="18">
         <v>21124797.4297668</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>-9640637.2448591292</v>
-      </c>
-      <c r="D44">
-        <v>11963653.420836199</v>
-      </c>
-      <c r="E44">
-        <v>21764864.538586002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="C45">
-        <v>11580980.2843192</v>
-      </c>
-      <c r="D45">
-        <v>18202692.292516202</v>
-      </c>
-      <c r="E45">
-        <v>15492885.826446399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <v>22299882.173245899</v>
-      </c>
-      <c r="D46">
-        <v>-922322.52783503395</v>
-      </c>
-      <c r="E46">
-        <v>14645540.936491599</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
         <v>24</v>
       </c>
-      <c r="C47">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18">
         <v>2808519.2060025502</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="18">
         <v>17209982.446679398</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="18">
         <v>20223860.699806999</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
         <v>25</v>
       </c>
-      <c r="C48">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18">
         <v>8650991.1836913992</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="18">
         <v>-12956546.126773201</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="18">
         <v>21442358.524250198</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>33</v>
       </c>
@@ -1308,20 +1400,20 @@
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
         <v>104166.66666666701</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="18">
         <v>-20833.333333333299</v>
       </c>
       <c r="F52">
@@ -1340,20 +1432,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="18">
         <v>104166.66666666701</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="18">
         <v>-20833.333333333299</v>
       </c>
       <c r="F53">
@@ -1372,20 +1464,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="18">
         <v>104166.66666666701</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="18">
         <v>-20833.333333333299</v>
       </c>
       <c r="F54">
@@ -1404,20 +1496,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="18">
         <v>104166.66666666701</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="18">
         <v>-20833.333333333299</v>
       </c>
       <c r="F55">
@@ -1436,20 +1528,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="18">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="18">
         <v>104166.66666666701</v>
       </c>
       <c r="F56">
@@ -1468,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -1484,23 +1576,23 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="18">
         <v>4.6296296296296298</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="18">
         <v>-0.92592592592592604</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -1516,23 +1608,23 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="18">
         <v>4.6296296296296298</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="18">
         <v>-0.92592592592592604</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -1548,23 +1640,23 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="18">
         <v>4.6296296296296298</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="18">
         <v>-0.92592592592592604</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -1580,23 +1672,23 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="18">
         <v>4.6296296296296298</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="18">
         <v>-0.92592592592592604</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -1612,129 +1704,129 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="18">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="18">
         <v>4.6296296296296298</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="18">
         <v>4</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="18">
         <v>23408188.068984602</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="18">
         <v>23408458.108272899</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
         <v>5</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="18">
         <v>21632913.6591</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="18">
         <v>21633431.795521699</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="18">
         <v>6</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="18">
         <v>21371250.344638199</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="18">
         <v>21371107.054242</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="18">
         <v>20</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="18">
         <v>20127388.690065101</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="18">
         <v>20127430.4542275</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
         <v>24</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="18">
         <v>21915054.787798598</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="18">
         <v>21915515.096868198</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="18">
         <v>25</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="18">
         <v>21939371.838162899</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="18">
         <v>21938803.045765299</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="19"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="B76" s="17"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="18">
         <v>299792458</v>
       </c>
       <c r="C77" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="18">
         <v>0.19029367280000001</v>
       </c>
       <c r="C78" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>24</v>
       </c>
@@ -1765,13 +1857,13 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>25</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>137160</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:colOff>518160</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1788,15 +1880,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>790575</xdr:colOff>
+                <xdr:colOff>792480</xdr:colOff>
                 <xdr:row>63</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1009650</xdr:colOff>
+                <xdr:colOff>1013460</xdr:colOff>
                 <xdr:row>64</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>137160</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1813,7 +1905,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
+                <xdr:colOff>754380</xdr:colOff>
                 <xdr:row>63</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
@@ -1821,7 +1913,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>64</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>160020</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1838,7 +1930,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
@@ -1865,13 +1957,13 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
+                <xdr:colOff>906780</xdr:colOff>
                 <xdr:row>25</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1886,12 +1978,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1900,12 +1992,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assignment_6/DiffAssignmentL1.xlsx
+++ b/Assignment_6/DiffAssignmentL1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbold\Desktop\GNSS\Assignment_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F104AEAF-CA7F-4CE5-AFFE-0320176EE6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4B6898-68CB-494F-945B-EA9655E4D002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,13 +310,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -965,7 +966,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="D6" sqref="D6:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1009,10 +1010,10 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="21">
         <v>23539463.375</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="21">
         <v>1655955.588</v>
       </c>
     </row>
@@ -1020,25 +1021,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="21">
         <v>23490620.344000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="21">
         <v>823151.02099999995</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="21">
         <v>21759846.219000001</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="21">
         <v>1790394.946</v>
       </c>
     </row>
@@ -1046,25 +1047,25 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="21">
         <v>21711251.640999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="21">
         <v>896009.12100000004</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="21">
         <v>21465916.188000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="21">
         <v>-2239193.3280000002</v>
       </c>
     </row>
@@ -1072,25 +1073,25 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="21">
         <v>21416660.203000002</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="21">
         <v>-984361.76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="21">
         <v>20250933.188000001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="21">
         <v>-104773.368</v>
       </c>
     </row>
@@ -1098,25 +1099,25 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="21">
         <v>20201862.078000002</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="21">
         <v>12789.109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="21">
         <v>21883884.655999999</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="21">
         <v>-132527.399</v>
       </c>
     </row>
@@ -1124,25 +1125,25 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="21">
         <v>21835232.258000001</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="21">
         <v>-3418.4389999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="21">
         <v>22080151.719000001</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="21">
         <v>-1897452.8540000001</v>
       </c>
     </row>
@@ -1150,10 +1151,10 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="21">
         <v>22030470.546999998</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="21">
         <v>-704176.24399999995</v>
       </c>
     </row>
@@ -1162,7 +1163,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="20">
+      <c r="C24" s="18">
         <v>-4.6269462519999999E-4</v>
       </c>
     </row>
@@ -1171,7 +1172,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="20">
+      <c r="C25" s="18">
         <v>-2.9888030410000002E-4</v>
       </c>
     </row>
@@ -1186,50 +1187,50 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <v>4</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="16">
         <v>448.59629794210201</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="16">
         <v>5</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <v>479.29772413521999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <v>6</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="16">
         <v>-446.26960337162001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="16">
         <v>20</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="16">
         <v>54.324880238622399</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="16">
         <v>24</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="16">
         <v>50.541296388953903</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="16">
         <v>25</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="16">
         <v>-372.57383386418201</v>
       </c>
     </row>
@@ -1253,13 +1254,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <v>3099255.4493</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="16">
         <v>1014087.319</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <v>5463148.7221999997</v>
       </c>
     </row>
@@ -1268,13 +1269,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="14"/>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <v>3099279.7204999998</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="16">
         <v>1013349.0864</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <v>5463275.8063000003</v>
       </c>
     </row>
@@ -1303,92 +1304,92 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
+      <c r="A43" s="16">
         <v>4</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16">
         <v>-9640637.2448591292</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="16">
         <v>11963653.420836199</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="16">
         <v>21764864.538586002</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
+      <c r="A44" s="16">
         <v>5</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16">
         <v>11580980.2843192</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="16">
         <v>18202692.292516202</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="16">
         <v>15492885.826446399</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
+      <c r="A45" s="16">
         <v>6</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16">
         <v>22299882.173245899</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="16">
         <v>-922322.52783503395</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="16">
         <v>14645540.936491599</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
+      <c r="A46" s="16">
         <v>20</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16">
         <v>15014113.589193899</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="16">
         <v>5240279.54006969</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="16">
         <v>21124797.4297668</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="16">
         <v>24</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16">
         <v>2808519.2060025502</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="16">
         <v>17209982.446679398</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="16">
         <v>20223860.699806999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
+      <c r="A48" s="16">
         <v>25</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16">
         <v>8650991.1836913992</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="16">
         <v>-12956546.126773201</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="16">
         <v>21442358.524250198</v>
       </c>
     </row>
@@ -1401,19 +1402,19 @@
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="A52" s="16">
         <v>104166.66666666701</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="16">
         <v>-20833.333333333299</v>
       </c>
       <c r="F52">
@@ -1433,19 +1434,19 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
+      <c r="A53" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="16">
         <v>104166.66666666701</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="16">
         <v>-20833.333333333299</v>
       </c>
       <c r="F53">
@@ -1465,19 +1466,19 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="16">
         <v>104166.66666666701</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="16">
         <v>-20833.333333333299</v>
       </c>
       <c r="F54">
@@ -1497,19 +1498,19 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
+      <c r="A55" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="16">
         <v>104166.66666666701</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="16">
         <v>-20833.333333333299</v>
       </c>
       <c r="F55">
@@ -1529,19 +1530,19 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
+      <c r="A56" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="16">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="16">
         <v>104166.66666666701</v>
       </c>
       <c r="F56">
@@ -1576,19 +1577,19 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="16">
         <v>4.6296296296296298</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J57" s="18">
+      <c r="J57" s="16">
         <v>-0.92592592592592604</v>
       </c>
     </row>
@@ -1608,19 +1609,19 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="16">
         <v>4.6296296296296298</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J58" s="16">
         <v>-0.92592592592592604</v>
       </c>
     </row>
@@ -1640,19 +1641,19 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="16">
         <v>4.6296296296296298</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J59" s="18">
+      <c r="J59" s="16">
         <v>-0.92592592592592604</v>
       </c>
     </row>
@@ -1672,19 +1673,19 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="16">
         <v>4.6296296296296298</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J60" s="16">
         <v>-0.92592592592592604</v>
       </c>
     </row>
@@ -1704,19 +1705,19 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="16">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J61" s="18">
+      <c r="J61" s="16">
         <v>4.6296296296296298</v>
       </c>
     </row>
@@ -1733,82 +1734,82 @@
       <c r="C65" s="8"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="18">
+      <c r="A66" s="16">
         <v>4</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="16">
         <v>23408188.068984602</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="16">
         <v>23408458.108272899</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="18">
+      <c r="A67" s="16">
         <v>5</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="16">
         <v>21632913.6591</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="16">
         <v>21633431.795521699</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="18">
+      <c r="A68" s="16">
         <v>6</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="16">
         <v>21371250.344638199</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="16">
         <v>21371107.054242</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="18">
+      <c r="A69" s="16">
         <v>20</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="16">
         <v>20127388.690065101</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="16">
         <v>20127430.4542275</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="18">
+      <c r="A70" s="16">
         <v>24</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="16">
         <v>21915054.787798598</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="16">
         <v>21915515.096868198</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="18">
+      <c r="A71" s="16">
         <v>25</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="16">
         <v>21939371.838162899</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="16">
         <v>21938803.045765299</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="17"/>
+      <c r="B76" s="20"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="16">
         <v>299792458</v>
       </c>
       <c r="C77" t="s">
@@ -1816,10 +1817,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="16">
         <v>0.19029367280000001</v>
       </c>
       <c r="C78" t="s">

--- a/Assignment_6/DiffAssignmentL1.xlsx
+++ b/Assignment_6/DiffAssignmentL1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbold\Desktop\GNSS\Assignment_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4B6898-68CB-494F-945B-EA9655E4D002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFBF74B-4BFE-4C6A-A4F3-6BD77330556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -313,11 +313,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D22"/>
     </sheetView>
   </sheetViews>
@@ -1010,10 +1010,10 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>23539463.375</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>1655955.588</v>
       </c>
     </row>
@@ -1021,25 +1021,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>23490620.344000001</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>823151.02099999995</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>21759846.219000001</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>1790394.946</v>
       </c>
     </row>
@@ -1047,25 +1047,25 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>21711251.640999999</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>896009.12100000004</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>21465916.188000001</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>-2239193.3280000002</v>
       </c>
     </row>
@@ -1073,25 +1073,25 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>21416660.203000002</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>-984361.76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="19">
         <v>20250933.188000001</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>-104773.368</v>
       </c>
     </row>
@@ -1099,25 +1099,25 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <v>20201862.078000002</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>12789.109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>21883884.655999999</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>-132527.399</v>
       </c>
     </row>
@@ -1125,25 +1125,25 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="19">
         <v>21835232.258000001</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>-3418.4389999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="19">
         <v>22080151.719000001</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>-1897452.8540000001</v>
       </c>
     </row>
@@ -1151,10 +1151,10 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="19">
         <v>22030470.546999998</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>-704176.24399999995</v>
       </c>
     </row>
@@ -1800,10 +1800,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">

--- a/Assignment_6/DiffAssignmentL1.xlsx
+++ b/Assignment_6/DiffAssignmentL1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbold\Desktop\GNSS\Assignment_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFBF74B-4BFE-4C6A-A4F3-6BD77330556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D8EDA-8927-497C-B88E-68562975572A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000"/>
+    <numFmt numFmtId="174" formatCode="0.00000000000"/>
+    <numFmt numFmtId="175" formatCode="0.000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="185" formatCode="0.000000000E+00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -206,7 +217,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,12 +329,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="185" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -965,16 +998,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1010,10 +1045,10 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="36">
         <v>23539463.375</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="36">
         <v>1655955.588</v>
       </c>
     </row>
@@ -1021,25 +1056,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="36">
         <v>23490620.344000001</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="36">
         <v>823151.02099999995</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="36">
         <v>21759846.219000001</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="36">
         <v>1790394.946</v>
       </c>
     </row>
@@ -1047,25 +1082,25 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="36">
         <v>21711251.640999999</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="36">
         <v>896009.12100000004</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="36">
         <v>21465916.188000001</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="36">
         <v>-2239193.3280000002</v>
       </c>
     </row>
@@ -1073,25 +1108,25 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="36">
         <v>21416660.203000002</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="36">
         <v>-984361.76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="36">
         <v>20250933.188000001</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="36">
         <v>-104773.368</v>
       </c>
     </row>
@@ -1099,25 +1134,25 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="36">
         <v>20201862.078000002</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="36">
         <v>12789.109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="36">
         <v>21883884.655999999</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="36">
         <v>-132527.399</v>
       </c>
     </row>
@@ -1125,25 +1160,25 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="36">
         <v>21835232.258000001</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="36">
         <v>-3418.4389999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="36">
         <v>22080151.719000001</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="36">
         <v>-1897452.8540000001</v>
       </c>
     </row>
@@ -1151,10 +1186,10 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="36">
         <v>22030470.546999998</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="36">
         <v>-704176.24399999995</v>
       </c>
     </row>
@@ -1163,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="18">
+      <c r="C24" s="37">
         <v>-4.6269462519999999E-4</v>
       </c>
     </row>
@@ -1172,7 +1207,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="18">
+      <c r="C25" s="37">
         <v>-2.9888030410000002E-4</v>
       </c>
     </row>
@@ -1190,7 +1225,7 @@
       <c r="A28" s="16">
         <v>4</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="27">
         <v>448.59629794210201</v>
       </c>
     </row>
@@ -1198,7 +1233,7 @@
       <c r="A29" s="16">
         <v>5</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="26">
         <v>479.29772413521999</v>
       </c>
     </row>
@@ -1206,7 +1241,7 @@
       <c r="A30" s="16">
         <v>6</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="26">
         <v>-446.26960337162001</v>
       </c>
     </row>
@@ -1214,7 +1249,7 @@
       <c r="A31" s="16">
         <v>20</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="28">
         <v>54.324880238622399</v>
       </c>
     </row>
@@ -1222,7 +1257,7 @@
       <c r="A32" s="16">
         <v>24</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="28">
         <v>50.541296388953903</v>
       </c>
     </row>
@@ -1230,7 +1265,7 @@
       <c r="A33" s="16">
         <v>25</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="27">
         <v>-372.57383386418201</v>
       </c>
     </row>
@@ -1254,13 +1289,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="16">
+      <c r="C37" s="21">
         <v>3099255.4493</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="18">
         <v>1014087.319</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="21">
         <v>5463148.7221999997</v>
       </c>
     </row>
@@ -1269,13 +1304,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="14"/>
-      <c r="C38" s="16">
+      <c r="C38" s="21">
         <v>3099279.7204999998</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="21">
         <v>1013349.0864</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="21">
         <v>5463275.8063000003</v>
       </c>
     </row>
@@ -1304,92 +1339,92 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="A43" s="31">
         <v>4</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16">
+      <c r="B43" s="31"/>
+      <c r="C43" s="32">
         <v>-9640637.2448591292</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="33">
         <v>11963653.420836199</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="34">
         <v>21764864.538586002</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="A44" s="31">
         <v>5</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16">
+      <c r="B44" s="31"/>
+      <c r="C44" s="33">
         <v>11580980.2843192</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="33">
         <v>18202692.292516202</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="33">
         <v>15492885.826446399</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="31">
         <v>6</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16">
+      <c r="B45" s="31"/>
+      <c r="C45" s="33">
         <v>22299882.173245899</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="35">
         <v>-922322.52783503395</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="33">
         <v>14645540.936491599</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="A46" s="31">
         <v>20</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16">
+      <c r="B46" s="31"/>
+      <c r="C46" s="33">
         <v>15014113.589193899</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="32">
         <v>5240279.54006969</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="33">
         <v>21124797.4297668</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="A47" s="31">
         <v>24</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16">
+      <c r="B47" s="31"/>
+      <c r="C47" s="32">
         <v>2808519.2060025502</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="33">
         <v>17209982.446679398</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="34">
         <v>20223860.699806999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="A48" s="31">
         <v>25</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16">
+      <c r="B48" s="31"/>
+      <c r="C48" s="33">
         <v>8650991.1836913992</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="33">
         <v>-12956546.126773201</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="33">
         <v>21442358.524250198</v>
       </c>
     </row>
@@ -1402,19 +1437,19 @@
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+      <c r="A52" s="24">
         <v>104166.66666666701</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="25">
         <v>-20833.333333333299</v>
       </c>
       <c r="F52">
@@ -1434,19 +1469,19 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+      <c r="A53" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="24">
         <v>104166.66666666701</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="25">
         <v>-20833.333333333299</v>
       </c>
       <c r="F53">
@@ -1466,19 +1501,19 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="A54" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="25">
         <v>104166.66666666701</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="25">
         <v>-20833.333333333299</v>
       </c>
       <c r="F54">
@@ -1498,19 +1533,19 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+      <c r="A55" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="24">
         <v>104166.66666666701</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="25">
         <v>-20833.333333333299</v>
       </c>
       <c r="F55">
@@ -1530,19 +1565,19 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="A56" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="25">
         <v>-20833.333333333299</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="24">
         <v>104166.66666666701</v>
       </c>
       <c r="F56">
@@ -1577,19 +1612,19 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="29">
         <v>4.6296296296296298</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="30">
         <v>-0.92592592592592604</v>
       </c>
     </row>
@@ -1609,19 +1644,19 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="29">
         <v>4.6296296296296298</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H58" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="30">
         <v>-0.92592592592592604</v>
       </c>
     </row>
@@ -1641,19 +1676,19 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="29">
         <v>4.6296296296296298</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="30">
         <v>-0.92592592592592604</v>
       </c>
     </row>
@@ -1673,19 +1708,19 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="29">
         <v>4.6296296296296298</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="30">
         <v>-0.92592592592592604</v>
       </c>
     </row>
@@ -1705,19 +1740,19 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="I61" s="16">
+      <c r="I61" s="30">
         <v>-0.92592592592592604</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="29">
         <v>4.6296296296296298</v>
       </c>
     </row>
@@ -1737,10 +1772,10 @@
       <c r="A66" s="16">
         <v>4</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="23">
         <v>23408188.068984602</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="23">
         <v>23408458.108272899</v>
       </c>
     </row>
@@ -1748,10 +1783,10 @@
       <c r="A67" s="16">
         <v>5</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="21">
         <v>21632913.6591</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="23">
         <v>21633431.795521699</v>
       </c>
     </row>
@@ -1759,10 +1794,10 @@
       <c r="A68" s="16">
         <v>6</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="23">
         <v>21371250.344638199</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="22">
         <v>21371107.054242</v>
       </c>
     </row>
@@ -1770,10 +1805,10 @@
       <c r="A69" s="16">
         <v>20</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="23">
         <v>20127388.690065101</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="23">
         <v>20127430.4542275</v>
       </c>
     </row>
@@ -1781,10 +1816,10 @@
       <c r="A70" s="16">
         <v>24</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="23">
         <v>21915054.787798598</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="23">
         <v>21915515.096868198</v>
       </c>
     </row>
@@ -1792,18 +1827,18 @@
       <c r="A71" s="16">
         <v>25</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="23">
         <v>21939371.838162899</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="23">
         <v>21938803.045765299</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="20"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
@@ -1820,7 +1855,7 @@
       <c r="A78" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="25">
         <v>0.19029367280000001</v>
       </c>
       <c r="C78" t="s">
